--- a/Excel_files/Data Base Fields.xlsx
+++ b/Excel_files/Data Base Fields.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve">LAB TESTS</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t xml:space="preserve">INSTITUTE / HOSPITAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VEAMOS QUE PASA SI HAGO ESTO</t>
   </si>
 </sst>
 </file>
@@ -184,13 +187,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:R3"/>
+  <dimension ref="A2:R10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R3" activeCellId="0" sqref="R3"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.75"/>
@@ -274,6 +277,11 @@
         <v>19</v>
       </c>
     </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="J2:K2"/>

--- a/Excel_files/Data Base Fields.xlsx
+++ b/Excel_files/Data Base Fields.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve">LAB TESTS</t>
   </si>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t xml:space="preserve">INSTITUTE / HOSPITAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VEAMOS QUE PASA SI HAGO ESTO</t>
   </si>
 </sst>
 </file>
@@ -187,13 +184,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:R10"/>
+  <dimension ref="A2:R3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.75"/>
@@ -277,11 +274,6 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="J2:K2"/>

--- a/Excel_files/Data Base Fields.xlsx
+++ b/Excel_files/Data Base Fields.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t xml:space="preserve">LAB TESTS</t>
   </si>
@@ -34,7 +34,7 @@
     <t xml:space="preserve">NAME</t>
   </si>
   <si>
-    <t xml:space="preserve">LAST NAME</t>
+    <t xml:space="preserve">LAST_NAME</t>
   </si>
   <si>
     <t xml:space="preserve">AGE</t>
@@ -49,37 +49,61 @@
     <t xml:space="preserve">WEIGHT</t>
   </si>
   <si>
-    <t xml:space="preserve">CONGENITAL DISEASES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CURRENT DISEASES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BLOOD TEST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">URINE TEST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X-RAYs</t>
+    <t xml:space="preserve">CONGENITAL_DISEASES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CURRENT_DISEASES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLOOD_TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URINE_TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X_RAYS</t>
   </si>
   <si>
     <t xml:space="preserve">MRI</t>
   </si>
   <si>
-    <t xml:space="preserve">NO INVASIVE</t>
+    <t xml:space="preserve">NO_INVASIVE</t>
   </si>
   <si>
     <t xml:space="preserve">INVASIVE</t>
   </si>
   <si>
-    <t xml:space="preserve">DOCTOR’S NAME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEDICAL LICENSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INSTITUTE / HOSPITAL</t>
+    <t xml:space="preserve">DOCTOR_NAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEDICAL_LICENSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INSTITUTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manuel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ojeda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miriam Orozco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMSS</t>
   </si>
 </sst>
 </file>
@@ -184,23 +208,27 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:R3"/>
+  <dimension ref="A2:R4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="27.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="24.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="21.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="14.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="13.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="9.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="7.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="13.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="12.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="17.09"/>
@@ -272,6 +300,62 @@
       </c>
       <c r="R3" s="2" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>91</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q4" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="R4" s="0" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
